--- a/biology/Zoologie/Arvicola/Arvicola.xlsx
+++ b/biology/Zoologie/Arvicola/Arvicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Arvicola comprend des petits rongeurs, plus précisément certains campagnols de la sous-famille des Arvicolinés. Ils sont aussi appelés rats d'eau ou campagnols d'eau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arvicola comprend des petits rongeurs, plus précisément certains campagnols de la sous-famille des Arvicolinés. Ils sont aussi appelés rats d'eau ou campagnols d'eau.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1799 par le zoologiste français Bernard-Germain de Lacépède (1756-1825).
-Synonymes : Alviceola, Hemiotomys, Ochetomys, Paludicola et Praticola[2].
+Synonymes : Alviceola, Hemiotomys, Ochetomys, Paludicola et Praticola.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (12 mars 2016)[3], NCBI  (12 mars 2016)[4], ITIS      (12 mars 2016)[5] et Catalogue of Life                                   (12 mars 2016)[6] :
-Arvicola amphibius (syn. Arvicola terrestris) - le Rat taupier[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (12 mars 2016), NCBI  (12 mars 2016), ITIS      (12 mars 2016) et Catalogue of Life                                   (12 mars 2016) :
+Arvicola amphibius (syn. Arvicola terrestris) - le Rat taupier
 Arvicola sapidus - le Campagnol amphibie
 Arvicola scherman
-Il y a jusqu'à 7 espèces différentes selon les auteurs : Arvicola amphibius, Arvicola illyricus, Arvicola italicus, Arvicola musignani, Arvicola sapidus, Arvicola scherman, et Arvicola terrestris (Miller, 1912a)[8].
+Il y a jusqu'à 7 espèces différentes selon les auteurs : Arvicola amphibius, Arvicola illyricus, Arvicola italicus, Arvicola musignani, Arvicola sapidus, Arvicola scherman, et Arvicola terrestris (Miller, 1912a).
 </t>
         </is>
       </c>
